--- a/src/public/ConsolidadoArboletes.xlsx
+++ b/src/public/ConsolidadoArboletes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcmendoza/Desktop/Apps/j4data/kratia/4jback/src/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B2E577-9FEC-2C4A-86C1-7E654C0DFE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2DEF06-2D53-6E43-AEC5-8BFB0F587B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52920" yWindow="-14120" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33360" yWindow="-15860" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3218,10 +3218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F836"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C503" sqref="C503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3254,7 +3255,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>3146628410</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>3023006163</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>3135474133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>3217226050</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>3186534248</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>3124716890</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>3137013845</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>3226476194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>3146911132</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>3007531231</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>3206907245</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>3122881443</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>3105306876</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>3147445961</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>3136957524</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>3104675489</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>3135551335</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -3614,7 +3615,7 @@
         <v>3217321967</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>3228990019</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>3206717251</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>3245945859</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>3135247366</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>3177160271</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>3172504708</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>3058015429</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>3103522284</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>3215879797</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v>3147325057</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -3834,7 +3835,7 @@
         <v>3215194277</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>3126969974</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>3233648768</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v>3107406352</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>3116530868</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>3206635903</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>3113401041</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>3209195400</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>3206635903</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -4054,7 +4055,7 @@
         <v>3106713121</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>3147356510</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>3025127821</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>3166669379</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>3184449052</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>3114274303</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>3145297007</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>3204435001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>3146555862</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>3006233026</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>3185248057</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>3147316211</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -4294,7 +4295,7 @@
         <v>3127705500</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>3011347005</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>3124780047</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -4354,7 +4355,7 @@
         <v>3136164153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>3114201152</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>3225880972</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>3226875866</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>3135425591</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>3183383740</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
         <v>61</v>
       </c>
@@ -4474,7 +4475,7 @@
         <v>3207578755</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
         <v>63</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>3145382049</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>3217521677</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13">
         <v>65</v>
       </c>
@@ -4554,7 +4555,7 @@
         <v>3104492988</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>3127821722</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>3136634565</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13">
         <v>68</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
         <v>69</v>
       </c>
@@ -4634,7 +4635,7 @@
         <v>3008438314</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13">
         <v>70</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>3155605938</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>3114314746</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -4694,7 +4695,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>3105967484</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>3116390613</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>3113437195</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>3226858917</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>3116390613</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>3103470120</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>3235827620</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -4854,7 +4855,7 @@
         <v>3217573304</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>3136605744</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>3145403421</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>3147622631</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>3128747998</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>85</v>
       </c>
@@ -4954,7 +4955,7 @@
         <v>3137955433</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>3136873826</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>3117751204</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>3205705829</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>3205361801</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>3117652419</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>3225108482</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>3232850635</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>3146290739</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>3147610201</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -5174,7 +5175,7 @@
         <v>3148960813</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>3014593339</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13">
         <v>99</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>3145202320</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -5254,7 +5255,7 @@
         <v>3106629596</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>3104695452</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13">
         <v>102</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>3137869447</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13">
         <v>103</v>
       </c>
@@ -5314,7 +5315,7 @@
         <v>3106369291</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13">
         <v>104</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>3136938844</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13">
         <v>105</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>3112015443</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13">
         <v>106</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>3113331487</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13">
         <v>107</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>3122234812</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13">
         <v>108</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>3147329523</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13">
         <v>109</v>
       </c>
@@ -5434,7 +5435,7 @@
         <v>3107017586</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13">
         <v>110</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>3216033479</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="13">
         <v>111</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>3145902161</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13">
         <v>112</v>
       </c>
@@ -5494,7 +5495,7 @@
         <v>3143694714</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13">
         <v>113</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13">
         <v>114</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>3147958462</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="13">
         <v>115</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>3123881732</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13">
         <v>116</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>3116168180</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13">
         <v>117</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>3226082624</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13">
         <v>118</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>3145382503</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13">
         <v>119</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>3008631051</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13">
         <v>120</v>
       </c>
@@ -5654,7 +5655,7 @@
         <v>3126129830</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13">
         <v>121</v>
       </c>
@@ -5674,7 +5675,7 @@
         <v>3106458538</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13">
         <v>122</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>3122394864</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13">
         <v>123</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13">
         <v>124</v>
       </c>
@@ -5734,7 +5735,7 @@
         <v>3126393927</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13">
         <v>125</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>3148787915</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13">
         <v>126</v>
       </c>
@@ -5774,7 +5775,7 @@
         <v>3127128635</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13">
         <v>127</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>3104310086</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13">
         <v>128</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>3146328317</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13">
         <v>129</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>3106027916</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13">
         <v>130</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>3106908843</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13">
         <v>131</v>
       </c>
@@ -5874,7 +5875,7 @@
         <v>3116697191</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13">
         <v>132</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>3058300555</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13">
         <v>133</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>3148384176</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13">
         <v>134</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>3222921048</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="13">
         <v>135</v>
       </c>
@@ -5954,7 +5955,7 @@
         <v>3203349056</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13">
         <v>136</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>3058300555</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="13">
         <v>137</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>3148263303</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13">
         <v>138</v>
       </c>
@@ -6014,7 +6015,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="13">
         <v>139</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13">
         <v>140</v>
       </c>
@@ -6054,7 +6055,7 @@
         <v>3135135822</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="13">
         <v>141</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>3106307748</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13">
         <v>142</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>3224351227</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="13">
         <v>143</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13">
         <v>144</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="13">
         <v>145</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>3106247771</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="13">
         <v>146</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>3135924100</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="13">
         <v>147</v>
       </c>
@@ -6194,7 +6195,7 @@
         <v>3117401408</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="13">
         <v>148</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>3117401408</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="13">
         <v>149</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>3002902012</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="13">
         <v>150</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>3122512149</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="13">
         <v>151</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13">
         <v>152</v>
       </c>
@@ -6294,7 +6295,7 @@
         <v>3113983470</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="13">
         <v>153</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>3106155223</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="13">
         <v>154</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>3202227872</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="13">
         <v>155</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13">
         <v>156</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>3206629077</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="13">
         <v>157</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>3107448483</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="13">
         <v>158</v>
       </c>
@@ -6414,7 +6415,7 @@
         <v>3233084649</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="13">
         <v>159</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>3127791958</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="13">
         <v>160</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>3105235799</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="13">
         <v>161</v>
       </c>
@@ -6474,7 +6475,7 @@
         <v>3146919042</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="13">
         <v>162</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="13">
         <v>163</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>3145015276</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="13">
         <v>164</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>3006501230</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="13">
         <v>165</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>3127853649</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="13">
         <v>166</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>3134745089</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="13">
         <v>167</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>3015724190</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="13">
         <v>168</v>
       </c>
@@ -6614,7 +6615,7 @@
         <v>3103516967</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="13">
         <v>169</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>3106573135</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="13">
         <v>170</v>
       </c>
@@ -6654,7 +6655,7 @@
         <v>3203781571</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="13">
         <v>171</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>3107562220</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="13">
         <v>172</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>3136500125</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="13">
         <v>173</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>3113780767</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="13">
         <v>174</v>
       </c>
@@ -6734,7 +6735,7 @@
         <v>3217192797</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="13">
         <v>175</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>3136542539</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="13">
         <v>176</v>
       </c>
@@ -6774,7 +6775,7 @@
         <v>3107030972</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="13">
         <v>177</v>
       </c>
@@ -6794,7 +6795,7 @@
         <v>3128789618</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="13">
         <v>178</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>3226067636</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>3216111574</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -6854,7 +6855,7 @@
         <v>3205458640</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>3182484575</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="13">
         <v>182</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>3184875811</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="13">
         <v>183</v>
       </c>
@@ -6914,7 +6915,7 @@
         <v>3217817624</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="13">
         <v>184</v>
       </c>
@@ -6934,7 +6935,7 @@
         <v>3145030378</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="13">
         <v>185</v>
       </c>
@@ -6954,7 +6955,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="13">
         <v>186</v>
       </c>
@@ -6974,7 +6975,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="13">
         <v>187</v>
       </c>
@@ -6994,7 +6995,7 @@
         <v>3103534191</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="13">
         <v>188</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>3202396798</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="13">
         <v>189</v>
       </c>
@@ -7034,7 +7035,7 @@
         <v>3233751917</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="13">
         <v>190</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>3137771032</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="13">
         <v>191</v>
       </c>
@@ -7074,7 +7075,7 @@
         <v>3148130498</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="13">
         <v>192</v>
       </c>
@@ -7094,7 +7095,7 @@
         <v>3106343108</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="13">
         <v>193</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>3148126140</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="13">
         <v>194</v>
       </c>
@@ -7134,7 +7135,7 @@
         <v>3122845659</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="13">
         <v>195</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>3168571867</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="13">
         <v>196</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>3226037523</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="13">
         <v>197</v>
       </c>
@@ -7194,7 +7195,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="13">
         <v>198</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>3145216860</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="13">
         <v>199</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>3207939894</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="13">
         <v>200</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>3183349605</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="13">
         <v>201</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>3137650827</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="13">
         <v>202</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>3116021533</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="13">
         <v>203</v>
       </c>
@@ -7314,7 +7315,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="13">
         <v>204</v>
       </c>
@@ -7334,7 +7335,7 @@
         <v>3146768227</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="13">
         <v>205</v>
       </c>
@@ -7354,7 +7355,7 @@
         <v>3226629144</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="13">
         <v>206</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="13">
         <v>207</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>3215714017</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="13">
         <v>208</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>3104478850</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="13">
         <v>209</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>3225130669</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="13">
         <v>210</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>3117384773</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="13">
         <v>211</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>3217404951</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="13">
         <v>212</v>
       </c>
@@ -7494,7 +7495,7 @@
         <v>3226476153</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="13">
         <v>213</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>3218976024</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="13">
         <v>214</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>3147781103</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="13">
         <v>215</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>3107386388</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="13">
         <v>216</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="13">
         <v>217</v>
       </c>
@@ -7594,7 +7595,7 @@
         <v>3168571867</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="13">
         <v>218</v>
       </c>
@@ -7614,7 +7615,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="13">
         <v>219</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>3222102170</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="13">
         <v>220</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>3103877790</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="13">
         <v>221</v>
       </c>
@@ -7674,7 +7675,7 @@
         <v>3207892689</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="13">
         <v>222</v>
       </c>
@@ -7694,7 +7695,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="13">
         <v>223</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>3113168085</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="13">
         <v>224</v>
       </c>
@@ -7734,7 +7735,7 @@
         <v>3243128005</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>3122920531</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -7774,7 +7775,7 @@
         <v>3126462295</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>3114352849</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -7814,7 +7815,7 @@
         <v>3136090389</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>3043310107</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -7854,7 +7855,7 @@
         <v>3122521036</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>3136946499</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -7894,7 +7895,7 @@
         <v>3205609801</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>3154202909</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="13">
         <v>234</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>3107003755</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="13">
         <v>235</v>
       </c>
@@ -7954,7 +7955,7 @@
         <v>3206660430</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="13">
         <v>236</v>
       </c>
@@ -7974,7 +7975,7 @@
         <v>3215380462</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="13">
         <v>237</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>3233754416</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="13">
         <v>238</v>
       </c>
@@ -8014,7 +8015,7 @@
         <v>3205978641</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="13">
         <v>239</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>3145739015</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="13">
         <v>240</v>
       </c>
@@ -8054,7 +8055,7 @@
         <v>3206586734</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="13">
         <v>241</v>
       </c>
@@ -8074,7 +8075,7 @@
         <v>3217815143</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="13">
         <v>242</v>
       </c>
@@ -8094,7 +8095,7 @@
         <v>3136703938</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="13">
         <v>243</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>3023133915</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="13">
         <v>244</v>
       </c>
@@ -8134,7 +8135,7 @@
         <v>3212466229</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="13">
         <v>245</v>
       </c>
@@ -8154,7 +8155,7 @@
         <v>3226057938</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="13">
         <v>246</v>
       </c>
@@ -8174,7 +8175,7 @@
         <v>3161645919</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="13">
         <v>247</v>
       </c>
@@ -8194,7 +8195,7 @@
         <v>3113809246</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="13">
         <v>248</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>3115824626</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="13">
         <v>249</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v>3228690830</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="13">
         <v>250</v>
       </c>
@@ -8254,7 +8255,7 @@
         <v>3117029075</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="13">
         <v>251</v>
       </c>
@@ -8274,7 +8275,7 @@
         <v>3226701864</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="13">
         <v>252</v>
       </c>
@@ -8294,7 +8295,7 @@
         <v>3002567137</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="13">
         <v>253</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>3136623341</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="13">
         <v>254</v>
       </c>
@@ -8334,7 +8335,7 @@
         <v>3148315977</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>3137656539</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -8374,7 +8375,7 @@
         <v>3124363160</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -8394,7 +8395,7 @@
         <v>3136856133</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -8414,7 +8415,7 @@
         <v>3213797290</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -8434,7 +8435,7 @@
         <v>3205517281</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="13">
         <v>260</v>
       </c>
@@ -8454,7 +8455,7 @@
         <v>3163886493</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="13">
         <v>261</v>
       </c>
@@ -8474,7 +8475,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -8494,7 +8495,7 @@
         <v>3115687014</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -8514,7 +8515,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>3116340326</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -8574,7 +8575,7 @@
         <v>3127890978</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>3217096111</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="13">
         <v>268</v>
       </c>
@@ -8614,7 +8615,7 @@
         <v>3005345503</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="13">
         <v>269</v>
       </c>
@@ -8634,7 +8635,7 @@
         <v>3212519505</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="13">
         <v>270</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>3125179731</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="13">
         <v>271</v>
       </c>
@@ -8674,7 +8675,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="13">
         <v>272</v>
       </c>
@@ -8694,7 +8695,7 @@
         <v>3012175123</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="13">
         <v>273</v>
       </c>
@@ -8714,7 +8715,7 @@
         <v>3106007420</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -8734,7 +8735,7 @@
         <v>3233031690</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="13">
         <v>275</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>3206122397</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -8774,7 +8775,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="13">
         <v>277</v>
       </c>
@@ -8794,7 +8795,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="13">
         <v>278</v>
       </c>
@@ -8814,7 +8815,7 @@
         <v>3245648822</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="13">
         <v>279</v>
       </c>
@@ -8834,7 +8835,7 @@
         <v>3226393584</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="13">
         <v>280</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>3116709725</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="13">
         <v>281</v>
       </c>
@@ -8874,7 +8875,7 @@
         <v>3205392101</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>3148624331</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>3053366407</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="13">
         <v>284</v>
       </c>
@@ -8934,7 +8935,7 @@
         <v>3122393834</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -8954,7 +8955,7 @@
         <v>3206645439</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -8974,7 +8975,7 @@
         <v>3103534391</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="13">
         <v>287</v>
       </c>
@@ -8994,7 +8995,7 @@
         <v>3148764614</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>3023136126</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>3105678095</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -9054,7 +9055,7 @@
         <v>3137228992</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -9074,7 +9075,7 @@
         <v>3167444855</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -9094,7 +9095,7 @@
         <v>3043505979</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -9114,7 +9115,7 @@
         <v>3206313164</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -9134,7 +9135,7 @@
         <v>3103877146</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="13">
         <v>295</v>
       </c>
@@ -9154,7 +9155,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="13">
         <v>296</v>
       </c>
@@ -9174,7 +9175,7 @@
         <v>3196171572</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="13">
         <v>297</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>3222930086</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -9214,7 +9215,7 @@
         <v>3103821320</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -9234,7 +9235,7 @@
         <v>3116241530</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -9254,7 +9255,7 @@
         <v>3234084769</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -9274,7 +9275,7 @@
         <v>3218865762</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -9294,7 +9295,7 @@
         <v>3244160229</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -9314,7 +9315,7 @@
         <v>3148454224</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -9334,7 +9335,7 @@
         <v>3104176714</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -9354,7 +9355,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>3224568407</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>3135593385</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -9414,7 +9415,7 @@
         <v>3226065746</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -9434,7 +9435,7 @@
         <v>3122227244</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -9454,7 +9455,7 @@
         <v>3227700718</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -9474,7 +9475,7 @@
         <v>3113569423</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -9494,7 +9495,7 @@
         <v>3206447356</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>3133509210</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -9534,7 +9535,7 @@
         <v>3106055046</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -9554,7 +9555,7 @@
         <v>3148352543</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -9574,7 +9575,7 @@
         <v>3206786018</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -9594,7 +9595,7 @@
         <v>3102509661</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -9614,7 +9615,7 @@
         <v>3122540173</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -9634,7 +9635,7 @@
         <v>3218841682</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>3225826998</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>3117359527</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -9694,7 +9695,7 @@
         <v>3222648735</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -9714,7 +9715,7 @@
         <v>3116155114</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -9734,7 +9735,7 @@
         <v>3114087218</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -9754,7 +9755,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -9774,7 +9775,7 @@
         <v>3106055046</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -9794,7 +9795,7 @@
         <v>3186600543</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -9814,7 +9815,7 @@
         <v>3226693714</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -9834,7 +9835,7 @@
         <v>3147608861</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="13">
         <v>330</v>
       </c>
@@ -9854,7 +9855,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="13">
         <v>331</v>
       </c>
@@ -9874,7 +9875,7 @@
         <v>3148445619</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="13">
         <v>332</v>
       </c>
@@ -9894,7 +9895,7 @@
         <v>3024543718</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="13">
         <v>333</v>
       </c>
@@ -9914,7 +9915,7 @@
         <v>3235053709</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="13">
         <v>334</v>
       </c>
@@ -9934,7 +9935,7 @@
         <v>3215856120</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="13">
         <v>335</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>3232974669</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="13">
         <v>336</v>
       </c>
@@ -9974,7 +9975,7 @@
         <v>3146460717</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="13">
         <v>337</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>3103731364</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="13">
         <v>338</v>
       </c>
@@ -10014,7 +10015,7 @@
         <v>3128143103</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="13">
         <v>339</v>
       </c>
@@ -10034,7 +10035,7 @@
         <v>3224047093</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="13">
         <v>340</v>
       </c>
@@ -10054,7 +10055,7 @@
         <v>3137930785</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="13">
         <v>341</v>
       </c>
@@ -10074,7 +10075,7 @@
         <v>3007802891</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="13">
         <v>342</v>
       </c>
@@ -10094,7 +10095,7 @@
         <v>3133069464</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="13">
         <v>343</v>
       </c>
@@ -10114,7 +10115,7 @@
         <v>3138439207</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="13">
         <v>344</v>
       </c>
@@ -10134,7 +10135,7 @@
         <v>3133368458</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="13">
         <v>345</v>
       </c>
@@ -10154,7 +10155,7 @@
         <v>3008125596</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="13">
         <v>346</v>
       </c>
@@ -10174,7 +10175,7 @@
         <v>3114242328</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="13">
         <v>347</v>
       </c>
@@ -10194,7 +10195,7 @@
         <v>3135003231</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="13">
         <v>348</v>
       </c>
@@ -10214,7 +10215,7 @@
         <v>3147583016</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="13">
         <v>349</v>
       </c>
@@ -10234,7 +10235,7 @@
         <v>3235012882</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="13">
         <v>350</v>
       </c>
@@ -10254,7 +10255,7 @@
         <v>3147102772</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="13">
         <v>351</v>
       </c>
@@ -10274,7 +10275,7 @@
         <v>3116700354</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="13">
         <v>352</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v>3205181102</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="13">
         <v>353</v>
       </c>
@@ -10314,7 +10315,7 @@
         <v>3104590651</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="13">
         <v>354</v>
       </c>
@@ -10334,7 +10335,7 @@
         <v>3225718657</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="13">
         <v>355</v>
       </c>
@@ -10354,7 +10355,7 @@
         <v>3007584805</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="13">
         <v>356</v>
       </c>
@@ -10374,7 +10375,7 @@
         <v>3225833843</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="13">
         <v>357</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>3103823821</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="13">
         <v>358</v>
       </c>
@@ -10414,7 +10415,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="13">
         <v>359</v>
       </c>
@@ -10434,7 +10435,7 @@
         <v>3103933660</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="13">
         <v>360</v>
       </c>
@@ -10454,7 +10455,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="13">
         <v>361</v>
       </c>
@@ -10474,7 +10475,7 @@
         <v>3135699597</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="13">
         <v>362</v>
       </c>
@@ -10494,7 +10495,7 @@
         <v>3147490318</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="13">
         <v>363</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>3108426041</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="13">
         <v>364</v>
       </c>
@@ -10534,7 +10535,7 @@
         <v>3128932355</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="13">
         <v>365</v>
       </c>
@@ -10554,7 +10555,7 @@
         <v>3244073173</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="13">
         <v>366</v>
       </c>
@@ -10574,7 +10575,7 @@
         <v>3136002355</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="13">
         <v>367</v>
       </c>
@@ -10594,7 +10595,7 @@
         <v>3113459002</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="13">
         <v>368</v>
       </c>
@@ -10614,7 +10615,7 @@
         <v>3148833358</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="13">
         <v>369</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>3216122424</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="13">
         <v>370</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>3006831016</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="13">
         <v>371</v>
       </c>
@@ -10674,7 +10675,7 @@
         <v>3226221095</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="13">
         <v>372</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>3217863670</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="13">
         <v>373</v>
       </c>
@@ -10714,7 +10715,7 @@
         <v>3205182295</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="13">
         <v>374</v>
       </c>
@@ -10734,7 +10735,7 @@
         <v>3104119739</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="13">
         <v>375</v>
       </c>
@@ -10754,7 +10755,7 @@
         <v>3235053745</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="13">
         <v>376</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="13">
         <v>377</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>3104648237</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="13">
         <v>378</v>
       </c>
@@ -10814,7 +10815,7 @@
         <v>3136585098</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="13">
         <v>379</v>
       </c>
@@ -10834,7 +10835,7 @@
         <v>3148441825</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="13">
         <v>380</v>
       </c>
@@ -10854,7 +10855,7 @@
         <v>3165434252</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="13">
         <v>381</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>3124282966</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="13">
         <v>382</v>
       </c>
@@ -10894,7 +10895,7 @@
         <v>3125899826</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="13">
         <v>383</v>
       </c>
@@ -10914,7 +10915,7 @@
         <v>3206096835</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="13">
         <v>384</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="13">
         <v>385</v>
       </c>
@@ -10954,7 +10955,7 @@
         <v>3217336120</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="13">
         <v>386</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>3148918209</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="13">
         <v>387</v>
       </c>
@@ -10994,7 +10995,7 @@
         <v>3146555862</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="13">
         <v>388</v>
       </c>
@@ -11014,7 +11015,7 @@
         <v>3122113147</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="13">
         <v>389</v>
       </c>
@@ -11034,7 +11035,7 @@
         <v>3148473677</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="13">
         <v>390</v>
       </c>
@@ -11054,7 +11055,7 @@
         <v>3107195195</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="13">
         <v>391</v>
       </c>
@@ -11074,7 +11075,7 @@
         <v>3226056736</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="13">
         <v>392</v>
       </c>
@@ -11094,7 +11095,7 @@
         <v>3217336120</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="13">
         <v>393</v>
       </c>
@@ -11114,7 +11115,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="13">
         <v>394</v>
       </c>
@@ -11134,7 +11135,7 @@
         <v>3177708489</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="13">
         <v>396</v>
       </c>
@@ -11154,7 +11155,7 @@
         <v>3017235676</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="13">
         <v>397</v>
       </c>
@@ -11174,7 +11175,7 @@
         <v>3103526357</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="13">
         <v>398</v>
       </c>
@@ -11194,7 +11195,7 @@
         <v>3126040114</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="13">
         <v>399</v>
       </c>
@@ -11214,7 +11215,7 @@
         <v>3114328431</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="13">
         <v>400</v>
       </c>
@@ -11234,7 +11235,7 @@
         <v>3117414630</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="13">
         <v>401</v>
       </c>
@@ -11254,7 +11255,7 @@
         <v>3128366663</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="13">
         <v>402</v>
       </c>
@@ -11274,7 +11275,7 @@
         <v>3226464534</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="13">
         <v>403</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>3177708489</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="13">
         <v>404</v>
       </c>
@@ -11314,7 +11315,7 @@
         <v>3215750122</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="13">
         <v>405</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>3136578735</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="13">
         <v>406</v>
       </c>
@@ -11354,7 +11355,7 @@
         <v>3103900522</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="13">
         <v>407</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>3133919200</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="13">
         <v>408</v>
       </c>
@@ -11394,7 +11395,7 @@
         <v>3207895004</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="13">
         <v>409</v>
       </c>
@@ -11414,7 +11415,7 @@
         <v>3145572856</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="13">
         <v>410</v>
       </c>
@@ -11434,7 +11435,7 @@
         <v>3016238134</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="13">
         <v>411</v>
       </c>
@@ -11454,7 +11455,7 @@
         <v>3125465044</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="13">
         <v>412</v>
       </c>
@@ -11474,7 +11475,7 @@
         <v>3174692860</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="13">
         <v>413</v>
       </c>
@@ -11494,7 +11495,7 @@
         <v>3142699933</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="13">
         <v>414</v>
       </c>
@@ -11514,7 +11515,7 @@
         <v>3128437685</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="13">
         <v>415</v>
       </c>
@@ -11534,7 +11535,7 @@
         <v>3106112851</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="13">
         <v>416</v>
       </c>
@@ -11554,7 +11555,7 @@
         <v>3216110115</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="13">
         <v>417</v>
       </c>
@@ -11574,7 +11575,7 @@
         <v>3503273850</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="13">
         <v>418</v>
       </c>
@@ -11594,7 +11595,7 @@
         <v>3005217187</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="13">
         <v>419</v>
       </c>
@@ -11614,7 +11615,7 @@
         <v>3145125203</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="13">
         <v>420</v>
       </c>
@@ -11634,7 +11635,7 @@
         <v>3238175398</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="13">
         <v>421</v>
       </c>
@@ -11654,7 +11655,7 @@
         <v>3184875827</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="13">
         <v>422</v>
       </c>
@@ -11674,7 +11675,7 @@
         <v>3245357076</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="13">
         <v>423</v>
       </c>
@@ -11694,7 +11695,7 @@
         <v>3108980356</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="13">
         <v>424</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>3115682530</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="13">
         <v>425</v>
       </c>
@@ -11734,7 +11735,7 @@
         <v>3126536165</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="13">
         <v>426</v>
       </c>
@@ -11752,7 +11753,7 @@
       </c>
       <c r="F426" s="1"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="13">
         <v>427</v>
       </c>
@@ -11772,7 +11773,7 @@
         <v>3244034749</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="13">
         <v>428</v>
       </c>
@@ -11792,7 +11793,7 @@
         <v>3146796737</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="13">
         <v>429</v>
       </c>
@@ -11812,7 +11813,7 @@
         <v>3126026642</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="13">
         <v>430</v>
       </c>
@@ -11832,7 +11833,7 @@
         <v>3001720000</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="13">
         <v>431</v>
       </c>
@@ -11852,7 +11853,7 @@
         <v>3159266917</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="13">
         <v>432</v>
       </c>
@@ -11872,7 +11873,7 @@
         <v>3127097623</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="13">
         <v>433</v>
       </c>
@@ -11892,7 +11893,7 @@
         <v>3226535360</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="13">
         <v>434</v>
       </c>
@@ -11912,7 +11913,7 @@
         <v>3103656805</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="13">
         <v>435</v>
       </c>
@@ -11932,7 +11933,7 @@
         <v>3103656805</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="13">
         <v>436</v>
       </c>
@@ -11952,7 +11953,7 @@
         <v>3117399002</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="13">
         <v>437</v>
       </c>
@@ -11972,7 +11973,7 @@
         <v>3226896580</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="13">
         <v>438</v>
       </c>
@@ -11992,7 +11993,7 @@
         <v>3005531313</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="13">
         <v>439</v>
       </c>
@@ -12012,7 +12013,7 @@
         <v>3128580355</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="13">
         <v>440</v>
       </c>
@@ -12032,7 +12033,7 @@
         <v>3184623354</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="13">
         <v>441</v>
       </c>
@@ -12050,7 +12051,7 @@
       </c>
       <c r="F441" s="1"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="13">
         <v>442</v>
       </c>
@@ -12070,7 +12071,7 @@
         <v>3226249727</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="13">
         <v>443</v>
       </c>
@@ -12090,7 +12091,7 @@
         <v>3196082320</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="13">
         <v>444</v>
       </c>
@@ -12110,7 +12111,7 @@
         <v>3104242561</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="13">
         <v>445</v>
       </c>
@@ -12130,7 +12131,7 @@
         <v>3186082320</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="13">
         <v>446</v>
       </c>
@@ -12150,7 +12151,7 @@
         <v>3003890782</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="13">
         <v>447</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>3234381428</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="13">
         <v>448</v>
       </c>
@@ -12190,7 +12191,7 @@
         <v>3125386041</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="13">
         <v>449</v>
       </c>
@@ -12210,7 +12211,7 @@
         <v>3147415368</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="13">
         <v>450</v>
       </c>
@@ -12230,7 +12231,7 @@
         <v>3146775489</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="13">
         <v>451</v>
       </c>
@@ -12250,7 +12251,7 @@
         <v>3217451657</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="13">
         <v>452</v>
       </c>
@@ -12270,7 +12271,7 @@
         <v>3234810171</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="13">
         <v>453</v>
       </c>
@@ -12290,7 +12291,7 @@
         <v>3116124948</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="13">
         <v>454</v>
       </c>
@@ -12310,7 +12311,7 @@
         <v>3133913367</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="13">
         <v>455</v>
       </c>
@@ -12330,7 +12331,7 @@
         <v>3006972412</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="13">
         <v>456</v>
       </c>
@@ -12350,7 +12351,7 @@
         <v>3006972412</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="13">
         <v>457</v>
       </c>
@@ -12370,7 +12371,7 @@
         <v>3127929568</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="13">
         <v>458</v>
       </c>
@@ -12390,7 +12391,7 @@
         <v>3147705417</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="13">
         <v>459</v>
       </c>
@@ -12410,7 +12411,7 @@
         <v>3122808910</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="13">
         <v>460</v>
       </c>
@@ -12430,7 +12431,7 @@
         <v>3122808910</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="13">
         <v>461</v>
       </c>
@@ -12450,7 +12451,7 @@
         <v>3146458507</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="13">
         <v>462</v>
       </c>
@@ -12470,7 +12471,7 @@
         <v>3136439471</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="13">
         <v>463</v>
       </c>
@@ -12490,7 +12491,7 @@
         <v>3174664684</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="13">
         <v>464</v>
       </c>
@@ -12510,7 +12511,7 @@
         <v>3215579827</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="13">
         <v>465</v>
       </c>
@@ -12530,7 +12531,7 @@
         <v>3145962969</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="13">
         <v>466</v>
       </c>
@@ -12550,7 +12551,7 @@
         <v>3222358200</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="13">
         <v>467</v>
       </c>
@@ -12570,7 +12571,7 @@
         <v>3235454787</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="13">
         <v>468</v>
       </c>
@@ -12590,7 +12591,7 @@
         <v>3128437116</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="13">
         <v>469</v>
       </c>
@@ -12610,7 +12611,7 @@
         <v>3043303091</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="13">
         <v>470</v>
       </c>
@@ -12630,7 +12631,7 @@
         <v>3043303091</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="13">
         <v>471</v>
       </c>
@@ -12650,7 +12651,7 @@
         <v>3225323055</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="13">
         <v>472</v>
       </c>
@@ -12670,7 +12671,7 @@
         <v>3226594142</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="13">
         <v>473</v>
       </c>
@@ -12690,7 +12691,7 @@
         <v>3148856615</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="13">
         <v>474</v>
       </c>
@@ -12708,7 +12709,7 @@
       </c>
       <c r="F474" s="1"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="13">
         <v>475</v>
       </c>
@@ -12726,7 +12727,7 @@
       </c>
       <c r="F475" s="1"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="13">
         <v>476</v>
       </c>
@@ -12744,7 +12745,7 @@
       </c>
       <c r="F476" s="1"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="13">
         <v>477</v>
       </c>
@@ -12762,7 +12763,7 @@
       </c>
       <c r="F477" s="1"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="13">
         <v>478</v>
       </c>
@@ -12780,7 +12781,7 @@
       </c>
       <c r="F478" s="1"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="13">
         <v>479</v>
       </c>
@@ -12798,7 +12799,7 @@
       </c>
       <c r="F479" s="1"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="13">
         <v>480</v>
       </c>
@@ -12816,7 +12817,7 @@
       </c>
       <c r="F480" s="1"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="13">
         <v>481</v>
       </c>
@@ -12836,7 +12837,7 @@
         <v>3235086862</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="13">
         <v>482</v>
       </c>
@@ -12856,7 +12857,7 @@
         <v>3136305291</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="13">
         <v>483</v>
       </c>
@@ -12874,7 +12875,7 @@
       </c>
       <c r="F483" s="1"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="13">
         <v>484</v>
       </c>
@@ -12892,7 +12893,7 @@
       </c>
       <c r="F484" s="1"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="13">
         <v>485</v>
       </c>
@@ -12910,7 +12911,7 @@
       </c>
       <c r="F485" s="1"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="13">
         <v>486</v>
       </c>
@@ -12928,7 +12929,7 @@
       </c>
       <c r="F486" s="1"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="13">
         <v>487</v>
       </c>
@@ -12946,7 +12947,7 @@
       </c>
       <c r="F487" s="1"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="13">
         <v>488</v>
       </c>
@@ -12964,7 +12965,7 @@
       </c>
       <c r="F488" s="1"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="13">
         <v>489</v>
       </c>
@@ -12982,7 +12983,7 @@
       </c>
       <c r="F489" s="1"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="13">
         <v>490</v>
       </c>
@@ -13000,7 +13001,7 @@
       </c>
       <c r="F490" s="1"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="13">
         <v>491</v>
       </c>
@@ -13018,7 +13019,7 @@
       </c>
       <c r="F491" s="1"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="13">
         <v>492</v>
       </c>
@@ -13036,7 +13037,7 @@
       </c>
       <c r="F492" s="1"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="13">
         <v>493</v>
       </c>
@@ -13054,7 +13055,7 @@
       </c>
       <c r="F493" s="1"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="13">
         <v>494</v>
       </c>
@@ -13072,7 +13073,7 @@
       </c>
       <c r="F494" s="1"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="13">
         <v>495</v>
       </c>
@@ -13090,7 +13091,7 @@
       </c>
       <c r="F495" s="1"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="13">
         <v>496</v>
       </c>
@@ -13108,7 +13109,7 @@
       </c>
       <c r="F496" s="1"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="13">
         <v>497</v>
       </c>
@@ -13126,7 +13127,7 @@
       </c>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="13">
         <v>498</v>
       </c>
@@ -13144,7 +13145,7 @@
       </c>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="13">
         <v>499</v>
       </c>
@@ -13180,7 +13181,7 @@
       </c>
       <c r="F500" s="1"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="13">
         <v>501</v>
       </c>
@@ -13198,7 +13199,7 @@
       </c>
       <c r="F501" s="1"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="13">
         <v>502</v>
       </c>
@@ -13234,7 +13235,7 @@
       </c>
       <c r="F503" s="1"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="13">
         <v>504</v>
       </c>
@@ -13252,7 +13253,7 @@
       </c>
       <c r="F504" s="1"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="13">
         <v>505</v>
       </c>
@@ -13270,7 +13271,7 @@
       </c>
       <c r="F505" s="1"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="13">
         <v>506</v>
       </c>
@@ -13288,7 +13289,7 @@
       </c>
       <c r="F506" s="1"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="13">
         <v>507</v>
       </c>
@@ -13306,7 +13307,7 @@
       </c>
       <c r="F507" s="1"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="13">
         <v>508</v>
       </c>
@@ -13324,7 +13325,7 @@
       </c>
       <c r="F508" s="1"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="13">
         <v>509</v>
       </c>
@@ -13342,7 +13343,7 @@
       </c>
       <c r="F509" s="1"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="13">
         <v>510</v>
       </c>
@@ -13360,7 +13361,7 @@
       </c>
       <c r="F510" s="1"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="13">
         <v>511</v>
       </c>
@@ -13378,7 +13379,7 @@
       </c>
       <c r="F511" s="1"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="13">
         <v>512</v>
       </c>
@@ -13396,7 +13397,7 @@
       </c>
       <c r="F512" s="1"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="13">
         <v>513</v>
       </c>
@@ -13414,7 +13415,7 @@
       </c>
       <c r="F513" s="1"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="13">
         <v>514</v>
       </c>
@@ -13432,7 +13433,7 @@
       </c>
       <c r="F514" s="1"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="13">
         <v>515</v>
       </c>
@@ -13450,7 +13451,7 @@
       </c>
       <c r="F515" s="1"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="13">
         <v>516</v>
       </c>
@@ -13468,7 +13469,7 @@
       </c>
       <c r="F516" s="1"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="13">
         <v>517</v>
       </c>
@@ -13486,7 +13487,7 @@
       </c>
       <c r="F517" s="1"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="13">
         <v>518</v>
       </c>
@@ -13504,7 +13505,7 @@
       </c>
       <c r="F518" s="1"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="13">
         <v>519</v>
       </c>
@@ -13522,7 +13523,7 @@
       </c>
       <c r="F519" s="1"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="13">
         <v>520</v>
       </c>
@@ -13540,7 +13541,7 @@
       </c>
       <c r="F520" s="1"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="13">
         <v>521</v>
       </c>
@@ -13558,7 +13559,7 @@
       </c>
       <c r="F521" s="1"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="13">
         <v>522</v>
       </c>
@@ -13576,7 +13577,7 @@
       </c>
       <c r="F522" s="1"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="13">
         <v>523</v>
       </c>
@@ -13594,7 +13595,7 @@
       </c>
       <c r="F523" s="1"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="13">
         <v>524</v>
       </c>
@@ -13612,7 +13613,7 @@
       </c>
       <c r="F524" s="1"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="13">
         <v>525</v>
       </c>
@@ -13630,7 +13631,7 @@
       </c>
       <c r="F525" s="1"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="13">
         <v>526</v>
       </c>
@@ -13648,7 +13649,7 @@
       </c>
       <c r="F526" s="1"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="13">
         <v>527</v>
       </c>
@@ -13666,7 +13667,7 @@
       </c>
       <c r="F527" s="1"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="13">
         <v>528</v>
       </c>
@@ -13684,7 +13685,7 @@
       </c>
       <c r="F528" s="1"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="13">
         <v>529</v>
       </c>
@@ -13702,7 +13703,7 @@
       </c>
       <c r="F529" s="1"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="13">
         <v>530</v>
       </c>
@@ -13720,7 +13721,7 @@
       </c>
       <c r="F530" s="1"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="13">
         <v>531</v>
       </c>
@@ -13738,7 +13739,7 @@
       </c>
       <c r="F531" s="1"/>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="13">
         <v>532</v>
       </c>
@@ -13756,7 +13757,7 @@
       </c>
       <c r="F532" s="1"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="13">
         <v>533</v>
       </c>
@@ -13774,7 +13775,7 @@
       </c>
       <c r="F533" s="1"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="13">
         <v>534</v>
       </c>
@@ -13794,7 +13795,7 @@
         <v>3216831483</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="13">
         <v>535</v>
       </c>
@@ -13814,7 +13815,7 @@
         <v>3106369291</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="13">
         <v>536</v>
       </c>
@@ -13834,7 +13835,7 @@
         <v>3212486256</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="13">
         <v>537</v>
       </c>
@@ -13854,7 +13855,7 @@
         <v>3206337291</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="13">
         <v>538</v>
       </c>
@@ -13874,7 +13875,7 @@
         <v>3216148300</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="13">
         <v>539</v>
       </c>
@@ -13894,7 +13895,7 @@
         <v>3226159482</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="13">
         <v>540</v>
       </c>
@@ -13914,7 +13915,7 @@
         <v>3104052183</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="13">
         <v>541</v>
       </c>
@@ -13934,7 +13935,7 @@
         <v>3197970533</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="13">
         <v>542</v>
       </c>
@@ -13954,7 +13955,7 @@
         <v>3447636762</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="13">
         <v>543</v>
       </c>
@@ -13974,7 +13975,7 @@
         <v>3045382256</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="13">
         <v>544</v>
       </c>
@@ -13994,7 +13995,7 @@
         <v>3126893132</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="13">
         <v>545</v>
       </c>
@@ -14014,7 +14015,7 @@
         <v>3127210762</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="13">
         <v>546</v>
       </c>
@@ -14034,7 +14035,7 @@
         <v>3147533653</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="13">
         <v>547</v>
       </c>
@@ -14054,7 +14055,7 @@
         <v>3215352052</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="13">
         <v>548</v>
       </c>
@@ -14074,7 +14075,7 @@
         <v>3128132344</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="13">
         <v>549</v>
       </c>
@@ -14094,7 +14095,7 @@
         <v>3005137559</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="13">
         <v>550</v>
       </c>
@@ -14114,7 +14115,7 @@
         <v>3136873826</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="13">
         <v>551</v>
       </c>
@@ -14132,7 +14133,7 @@
       </c>
       <c r="F551" s="1"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="13">
         <v>552</v>
       </c>
@@ -14152,7 +14153,7 @@
         <v>3214975324</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="13">
         <v>553</v>
       </c>
@@ -14172,7 +14173,7 @@
         <v>3145793797</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="13">
         <v>554</v>
       </c>
@@ -14192,7 +14193,7 @@
         <v>3194310593</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="13">
         <v>555</v>
       </c>
@@ -14212,7 +14213,7 @@
         <v>3127103597</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="13">
         <v>556</v>
       </c>
@@ -14232,7 +14233,7 @@
         <v>3105318880</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="13">
         <v>557</v>
       </c>
@@ -14252,7 +14253,7 @@
         <v>3239907959</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="13">
         <v>558</v>
       </c>
@@ -14272,7 +14273,7 @@
         <v>3239907959</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="13">
         <v>559</v>
       </c>
@@ -14292,7 +14293,7 @@
         <v>3239907959</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="13">
         <v>560</v>
       </c>
@@ -14312,7 +14313,7 @@
         <v>3145434210</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="13">
         <v>561</v>
       </c>
@@ -14332,7 +14333,7 @@
         <v>3218656786</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="13">
         <v>562</v>
       </c>
@@ -14352,7 +14353,7 @@
         <v>3217300824</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="13">
         <v>563</v>
       </c>
@@ -14372,7 +14373,7 @@
         <v>3217300824</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="13">
         <v>564</v>
       </c>
@@ -14392,7 +14393,7 @@
         <v>3217307101</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="13">
         <v>565</v>
       </c>
@@ -14412,7 +14413,7 @@
         <v>3239895224</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="13">
         <v>566</v>
       </c>
@@ -14432,7 +14433,7 @@
         <v>3239907959</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="13">
         <v>567</v>
       </c>
@@ -14452,7 +14453,7 @@
         <v>3105318880</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="13">
         <v>568</v>
       </c>
@@ -14472,7 +14473,7 @@
         <v>3145434210</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="13">
         <v>569</v>
       </c>
@@ -14492,7 +14493,7 @@
         <v>3218656786</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="13">
         <v>570</v>
       </c>
@@ -14510,7 +14511,7 @@
       </c>
       <c r="F570" s="1"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="13">
         <v>571</v>
       </c>
@@ -14528,7 +14529,7 @@
       </c>
       <c r="F571" s="1"/>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="13">
         <v>572</v>
       </c>
@@ -14546,7 +14547,7 @@
       </c>
       <c r="F572" s="1"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="13">
         <v>573</v>
       </c>
@@ -14564,7 +14565,7 @@
       </c>
       <c r="F573" s="1"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="13">
         <v>574</v>
       </c>
@@ -14582,7 +14583,7 @@
       </c>
       <c r="F574" s="1"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="13">
         <v>575</v>
       </c>
@@ -14602,7 +14603,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="13">
         <v>576</v>
       </c>
@@ -14622,7 +14623,7 @@
         <v>3205589021</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="13">
         <v>577</v>
       </c>
@@ -14642,7 +14643,7 @@
         <v>3004567685</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="13">
         <v>578</v>
       </c>
@@ -14662,7 +14663,7 @@
         <v>3205365960</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="13">
         <v>579</v>
       </c>
@@ -14682,7 +14683,7 @@
         <v>3138367699</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="13">
         <v>580</v>
       </c>
@@ -14702,7 +14703,7 @@
         <v>3104321877</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="13">
         <v>581</v>
       </c>
@@ -14722,7 +14723,7 @@
         <v>3116053143</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="13">
         <v>582</v>
       </c>
@@ -14740,7 +14741,7 @@
       </c>
       <c r="F582" s="5"/>
     </row>
-    <row r="583" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="13">
         <v>583</v>
       </c>
@@ -14758,7 +14759,7 @@
       </c>
       <c r="F583" s="5"/>
     </row>
-    <row r="584" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="13">
         <v>584</v>
       </c>
@@ -14778,7 +14779,7 @@
         <v>3006273720</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="13">
         <v>585</v>
       </c>
@@ -14798,7 +14799,7 @@
         <v>3126649865</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="13">
         <v>586</v>
       </c>
@@ -14818,7 +14819,7 @@
         <v>3122897419</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="13">
         <v>587</v>
       </c>
@@ -14838,7 +14839,7 @@
         <v>3105944577</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="13">
         <v>588</v>
       </c>
@@ -14858,7 +14859,7 @@
         <v>3226629741</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="13">
         <v>589</v>
       </c>
@@ -14878,7 +14879,7 @@
         <v>3148013007</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="13">
         <v>590</v>
       </c>
@@ -14898,7 +14899,7 @@
         <v>3001556428</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="13">
         <v>591</v>
       </c>
@@ -14918,7 +14919,7 @@
         <v>3137847966</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="13">
         <v>592</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>3216968988</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="13">
         <v>593</v>
       </c>
@@ -14958,7 +14959,7 @@
         <v>3027175851</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="13">
         <v>594</v>
       </c>
@@ -14978,7 +14979,7 @@
         <v>3027175851</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="13">
         <v>595</v>
       </c>
@@ -14998,7 +14999,7 @@
         <v>3184753076</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="13">
         <v>596</v>
       </c>
@@ -15016,7 +15017,7 @@
       </c>
       <c r="F596" s="5"/>
     </row>
-    <row r="597" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="13">
         <v>597</v>
       </c>
@@ -15036,7 +15037,7 @@
         <v>3142913316</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="13">
         <v>598</v>
       </c>
@@ -15056,7 +15057,7 @@
         <v>3137126213</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="13">
         <v>599</v>
       </c>
@@ -15076,7 +15077,7 @@
         <v>3183350054</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="13">
         <v>600</v>
       </c>
@@ -15096,7 +15097,7 @@
         <v>3215312411</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="13">
         <v>601</v>
       </c>
@@ -15116,7 +15117,7 @@
         <v>3105558275</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="13">
         <v>602</v>
       </c>
@@ -15136,7 +15137,7 @@
         <v>3206785021</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="13">
         <v>603</v>
       </c>
@@ -15156,7 +15157,7 @@
         <v>3106603165</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="13">
         <v>604</v>
       </c>
@@ -15176,7 +15177,7 @@
         <v>3147794390</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="13">
         <v>605</v>
       </c>
@@ -15194,7 +15195,7 @@
       </c>
       <c r="F605" s="5"/>
     </row>
-    <row r="606" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="13">
         <v>606</v>
       </c>
@@ -15214,7 +15215,7 @@
         <v>3148815393</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="13">
         <v>607</v>
       </c>
@@ -15234,7 +15235,7 @@
         <v>3105040848</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="13">
         <v>608</v>
       </c>
@@ -15254,7 +15255,7 @@
         <v>3124728512</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="13">
         <v>609</v>
       </c>
@@ -15274,7 +15275,7 @@
         <v>3117312162</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="13">
         <v>610</v>
       </c>
@@ -15294,7 +15295,7 @@
         <v>3226580681</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="13">
         <v>611</v>
       </c>
@@ -15312,7 +15313,7 @@
       </c>
       <c r="F611" s="5"/>
     </row>
-    <row r="612" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="13">
         <v>612</v>
       </c>
@@ -15332,7 +15333,7 @@
         <v>3225908843</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="13">
         <v>613</v>
       </c>
@@ -15352,7 +15353,7 @@
         <v>3116823196</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="13">
         <v>614</v>
       </c>
@@ -15372,7 +15373,7 @@
         <v>3023074636</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="13">
         <v>615</v>
       </c>
@@ -15392,7 +15393,7 @@
         <v>3205203846</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="13">
         <v>616</v>
       </c>
@@ -15412,7 +15413,7 @@
         <v>3127555499</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="13">
         <v>617</v>
       </c>
@@ -15432,7 +15433,7 @@
         <v>3137662787</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="13">
         <v>618</v>
       </c>
@@ -15450,7 +15451,7 @@
       </c>
       <c r="F618" s="5"/>
     </row>
-    <row r="619" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="13">
         <v>619</v>
       </c>
@@ -15470,7 +15471,7 @@
         <v>3107013699</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="13">
         <v>620</v>
       </c>
@@ -15490,7 +15491,7 @@
         <v>3226120403</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="13">
         <v>621</v>
       </c>
@@ -15510,7 +15511,7 @@
         <v>3105216635</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="13">
         <v>622</v>
       </c>
@@ -15530,7 +15531,7 @@
         <v>3117080005</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="13">
         <v>623</v>
       </c>
@@ -15550,7 +15551,7 @@
         <v>3105230365</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="13">
         <v>624</v>
       </c>
@@ -15570,7 +15571,7 @@
         <v>3136280843</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="13">
         <v>625</v>
       </c>
@@ -15588,7 +15589,7 @@
       </c>
       <c r="F625" s="5"/>
     </row>
-    <row r="626" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="13">
         <v>626</v>
       </c>
@@ -15608,7 +15609,7 @@
         <v>3122851143</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="13">
         <v>627</v>
       </c>
@@ -15628,7 +15629,7 @@
         <v>3127951258</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="13">
         <v>628</v>
       </c>
@@ -15648,7 +15649,7 @@
         <v>3205611285</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="13">
         <v>629</v>
       </c>
@@ -15666,7 +15667,7 @@
       </c>
       <c r="F629" s="5"/>
     </row>
-    <row r="630" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="13">
         <v>630</v>
       </c>
@@ -15686,7 +15687,7 @@
         <v>3137668922</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="13">
         <v>631</v>
       </c>
@@ -15706,7 +15707,7 @@
         <v>3105460898</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="13">
         <v>632</v>
       </c>
@@ -15726,7 +15727,7 @@
         <v>3135897406</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="13">
         <v>633</v>
       </c>
@@ -15744,7 +15745,7 @@
       </c>
       <c r="F633" s="5"/>
     </row>
-    <row r="634" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="13">
         <v>634</v>
       </c>
@@ -15764,7 +15765,7 @@
         <v>3147569070</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="13">
         <v>635</v>
       </c>
@@ -15784,7 +15785,7 @@
         <v>3107092110</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="13">
         <v>636</v>
       </c>
@@ -15804,7 +15805,7 @@
         <v>3106908272</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="13">
         <v>637</v>
       </c>
@@ -15824,7 +15825,7 @@
         <v>3106762890</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="13">
         <v>638</v>
       </c>
@@ -15842,7 +15843,7 @@
       </c>
       <c r="F638" s="5"/>
     </row>
-    <row r="639" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="13">
         <v>639</v>
       </c>
@@ -15862,7 +15863,7 @@
         <v>3126794096</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="13">
         <v>640</v>
       </c>
@@ -15882,7 +15883,7 @@
         <v>3146234090</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="13">
         <v>641</v>
       </c>
@@ -15902,7 +15903,7 @@
         <v>3106276384</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="13">
         <v>642</v>
       </c>
@@ -15922,7 +15923,7 @@
         <v>3024134135</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="13">
         <v>643</v>
       </c>
@@ -15942,7 +15943,7 @@
         <v>3117800975</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="13">
         <v>644</v>
       </c>
@@ -15962,7 +15963,7 @@
         <v>3145732127</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="13">
         <v>645</v>
       </c>
@@ -15982,7 +15983,7 @@
         <v>3014404330</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="13">
         <v>646</v>
       </c>
@@ -16002,7 +16003,7 @@
         <v>3204507527</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="13">
         <v>647</v>
       </c>
@@ -16020,7 +16021,7 @@
       </c>
       <c r="F647" s="5"/>
     </row>
-    <row r="648" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="13">
         <v>648</v>
       </c>
@@ -16040,7 +16041,7 @@
         <v>3107017575</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" s="13">
         <v>649</v>
       </c>
@@ -16060,7 +16061,7 @@
         <v>3235059135</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="13">
         <v>650</v>
       </c>
@@ -16078,7 +16079,7 @@
       </c>
       <c r="F650" s="5"/>
     </row>
-    <row r="651" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="13">
         <v>651</v>
       </c>
@@ -16098,7 +16099,7 @@
         <v>3117438452</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="13">
         <v>652</v>
       </c>
@@ -16118,7 +16119,7 @@
         <v>3146716179</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" s="13">
         <v>653</v>
       </c>
@@ -16138,7 +16139,7 @@
         <v>3218943778</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" s="13">
         <v>654</v>
       </c>
@@ -16158,7 +16159,7 @@
         <v>3218943778</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" s="13">
         <v>655</v>
       </c>
@@ -16178,7 +16179,7 @@
         <v>3234607599</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="13">
         <v>656</v>
       </c>
@@ -16198,7 +16199,7 @@
         <v>3234607599</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" s="13">
         <v>657</v>
       </c>
@@ -16216,7 +16217,7 @@
       </c>
       <c r="F657" s="5"/>
     </row>
-    <row r="658" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="13">
         <v>658</v>
       </c>
@@ -16236,7 +16237,7 @@
         <v>3175713014</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" s="13">
         <v>659</v>
       </c>
@@ -16256,7 +16257,7 @@
         <v>3126218327</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" s="13">
         <v>660</v>
       </c>
@@ -16276,7 +16277,7 @@
         <v>3122805118</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" s="13">
         <v>661</v>
       </c>
@@ -16296,7 +16297,7 @@
         <v>3235059135</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" s="13">
         <v>662</v>
       </c>
@@ -16316,7 +16317,7 @@
         <v>3202754859</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" s="13">
         <v>663</v>
       </c>
@@ -16336,7 +16337,7 @@
         <v>3105450436</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" s="13">
         <v>664</v>
       </c>
@@ -16356,7 +16357,7 @@
         <v>3107270899</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="13">
         <v>665</v>
       </c>
@@ -16376,7 +16377,7 @@
         <v>3245882193</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" s="13">
         <v>666</v>
       </c>
@@ -16396,7 +16397,7 @@
         <v>3005606842</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" s="13">
         <v>667</v>
       </c>
@@ -16416,7 +16417,7 @@
         <v>3205997994</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" s="13">
         <v>668</v>
       </c>
@@ -16436,7 +16437,7 @@
         <v>3122953108</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" s="13">
         <v>669</v>
       </c>
@@ -16456,7 +16457,7 @@
         <v>3011614604</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" s="13">
         <v>670</v>
       </c>
@@ -16476,7 +16477,7 @@
         <v>3174547343</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" s="13">
         <v>671</v>
       </c>
@@ -16496,7 +16497,7 @@
         <v>3216828932</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="13">
         <v>672</v>
       </c>
@@ -16516,7 +16517,7 @@
         <v>3145191914</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="13">
         <v>673</v>
       </c>
@@ -16536,7 +16537,7 @@
         <v>3145381055</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" s="13">
         <v>674</v>
       </c>
@@ -16556,7 +16557,7 @@
         <v>3106716798</v>
       </c>
     </row>
-    <row r="675" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="13">
         <v>675</v>
       </c>
@@ -16576,7 +16577,7 @@
         <v>3133176151</v>
       </c>
     </row>
-    <row r="676" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="13">
         <v>676</v>
       </c>
@@ -16594,7 +16595,7 @@
       </c>
       <c r="F676" s="5"/>
     </row>
-    <row r="677" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="13">
         <v>677</v>
       </c>
@@ -16614,7 +16615,7 @@
         <v>3145305463</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="13">
         <v>678</v>
       </c>
@@ -16634,7 +16635,7 @@
         <v>3147325735</v>
       </c>
     </row>
-    <row r="679" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="13">
         <v>679</v>
       </c>
@@ -16654,7 +16655,7 @@
         <v>3127714125</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" s="13">
         <v>680</v>
       </c>
@@ -16674,7 +16675,7 @@
         <v>3216786920</v>
       </c>
     </row>
-    <row r="681" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="13">
         <v>681</v>
       </c>
@@ -16694,7 +16695,7 @@
         <v>3105967484</v>
       </c>
     </row>
-    <row r="682" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="13">
         <v>682</v>
       </c>
@@ -16712,7 +16713,7 @@
       </c>
       <c r="F682" s="5"/>
     </row>
-    <row r="683" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="13">
         <v>683</v>
       </c>
@@ -16730,7 +16731,7 @@
       </c>
       <c r="F683" s="5"/>
     </row>
-    <row r="684" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="13">
         <v>684</v>
       </c>
@@ -16750,7 +16751,7 @@
         <v>3218953235</v>
       </c>
     </row>
-    <row r="685" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="13">
         <v>685</v>
       </c>
@@ -16768,7 +16769,7 @@
       </c>
       <c r="F685" s="5"/>
     </row>
-    <row r="686" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" s="13">
         <v>686</v>
       </c>
@@ -16788,7 +16789,7 @@
         <v>3104147887</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" s="13">
         <v>687</v>
       </c>
@@ -16808,7 +16809,7 @@
         <v>3104147887</v>
       </c>
     </row>
-    <row r="688" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="13">
         <v>688</v>
       </c>
@@ -16828,7 +16829,7 @@
         <v>3126247715</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="13">
         <v>689</v>
       </c>
@@ -16848,7 +16849,7 @@
         <v>3106394519</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="13">
         <v>690</v>
       </c>
@@ -16868,7 +16869,7 @@
         <v>3106394519</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="13">
         <v>691</v>
       </c>
@@ -16888,7 +16889,7 @@
         <v>3217624053</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" s="13">
         <v>692</v>
       </c>
@@ -16908,7 +16909,7 @@
         <v>3232971331</v>
       </c>
     </row>
-    <row r="693" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" s="13">
         <v>693</v>
       </c>
@@ -16928,7 +16929,7 @@
         <v>3216253402</v>
       </c>
     </row>
-    <row r="694" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" s="13">
         <v>694</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>3138075167</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" s="13">
         <v>695</v>
       </c>
@@ -16966,7 +16967,7 @@
       </c>
       <c r="F695" s="5"/>
     </row>
-    <row r="696" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" s="13">
         <v>696</v>
       </c>
@@ -16986,7 +16987,7 @@
         <v>3106301424</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="13">
         <v>697</v>
       </c>
@@ -17006,7 +17007,7 @@
         <v>3104545771</v>
       </c>
     </row>
-    <row r="698" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="13">
         <v>698</v>
       </c>
@@ -17024,7 +17025,7 @@
       </c>
       <c r="F698" s="5"/>
     </row>
-    <row r="699" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" s="13">
         <v>699</v>
       </c>
@@ -17042,7 +17043,7 @@
       </c>
       <c r="F699" s="5"/>
     </row>
-    <row r="700" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" s="13">
         <v>700</v>
       </c>
@@ -17060,7 +17061,7 @@
       </c>
       <c r="F700" s="5"/>
     </row>
-    <row r="701" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" s="13">
         <v>701</v>
       </c>
@@ -17078,7 +17079,7 @@
       </c>
       <c r="F701" s="5"/>
     </row>
-    <row r="702" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" s="13">
         <v>702</v>
       </c>
@@ -17098,7 +17099,7 @@
         <v>3225887942</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" s="13">
         <v>703</v>
       </c>
@@ -17116,7 +17117,7 @@
       </c>
       <c r="F703" s="6"/>
     </row>
-    <row r="704" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" s="13">
         <v>704</v>
       </c>
@@ -17136,7 +17137,7 @@
         <v>3226092206</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" s="13">
         <v>705</v>
       </c>
@@ -17156,7 +17157,7 @@
         <v>3226092206</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" s="13">
         <v>706</v>
       </c>
@@ -17174,7 +17175,7 @@
       </c>
       <c r="F706" s="6"/>
     </row>
-    <row r="707" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" s="13">
         <v>707</v>
       </c>
@@ -17192,7 +17193,7 @@
       </c>
       <c r="F707" s="6"/>
     </row>
-    <row r="708" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" s="13">
         <v>708</v>
       </c>
@@ -17212,7 +17213,7 @@
         <v>3128789618</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="13">
         <v>709</v>
       </c>
@@ -17232,7 +17233,7 @@
         <v>3128789618</v>
       </c>
     </row>
-    <row r="710" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" s="13">
         <v>710</v>
       </c>
@@ -17252,7 +17253,7 @@
         <v>3128789618</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" s="13">
         <v>711</v>
       </c>
@@ -17272,7 +17273,7 @@
         <v>3128789618</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" s="13">
         <v>712</v>
       </c>
@@ -17292,7 +17293,7 @@
         <v>3128789618</v>
       </c>
     </row>
-    <row r="713" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" s="13">
         <v>713</v>
       </c>
@@ -17312,7 +17313,7 @@
         <v>3108335011</v>
       </c>
     </row>
-    <row r="714" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" s="13">
         <v>714</v>
       </c>
@@ -17332,7 +17333,7 @@
         <v>3128789618</v>
       </c>
     </row>
-    <row r="715" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" s="13">
         <v>715</v>
       </c>
@@ -17352,7 +17353,7 @@
         <v>3106398424</v>
       </c>
     </row>
-    <row r="716" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="13">
         <v>716</v>
       </c>
@@ -17372,7 +17373,7 @@
         <v>3147294922</v>
       </c>
     </row>
-    <row r="717" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" s="13">
         <v>717</v>
       </c>
@@ -17392,7 +17393,7 @@
         <v>3224351227</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" s="13">
         <v>718</v>
       </c>
@@ -17412,7 +17413,7 @@
         <v>3224351227</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" s="13">
         <v>719</v>
       </c>
@@ -17432,7 +17433,7 @@
         <v>3224351227</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" s="13">
         <v>720</v>
       </c>
@@ -17452,7 +17453,7 @@
         <v>3224351227</v>
       </c>
     </row>
-    <row r="721" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" s="13">
         <v>721</v>
       </c>
@@ -17472,7 +17473,7 @@
         <v>3145902161</v>
       </c>
     </row>
-    <row r="722" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" s="13">
         <v>722</v>
       </c>
@@ -17492,7 +17493,7 @@
         <v>3222735200</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" s="13">
         <v>723</v>
       </c>
@@ -17512,7 +17513,7 @@
         <v>3222735200</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" s="13">
         <v>724</v>
       </c>
@@ -17532,7 +17533,7 @@
         <v>3239781974</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" s="13">
         <v>725</v>
       </c>
@@ -17552,7 +17553,7 @@
         <v>3239910657</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" s="13">
         <v>726</v>
       </c>
@@ -17572,7 +17573,7 @@
         <v>3146953485</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" s="13">
         <v>727</v>
       </c>
@@ -17592,7 +17593,7 @@
         <v>3147538364</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" s="13">
         <v>728</v>
       </c>
@@ -17612,7 +17613,7 @@
         <v>3117712871</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" s="13">
         <v>729</v>
       </c>
@@ -17632,7 +17633,7 @@
         <v>3205045451</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="13">
         <v>730</v>
       </c>
@@ -17652,7 +17653,7 @@
         <v>3212833169</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" s="13">
         <v>731</v>
       </c>
@@ -17672,7 +17673,7 @@
         <v>3127103247</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" s="13">
         <v>732</v>
       </c>
@@ -17692,7 +17693,7 @@
         <v>3226057938</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" s="13">
         <v>733</v>
       </c>
@@ -17712,7 +17713,7 @@
         <v>3234747515</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" s="13">
         <v>734</v>
       </c>
@@ -17732,7 +17733,7 @@
         <v>3116797258</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" s="13">
         <v>735</v>
       </c>
@@ -17752,7 +17753,7 @@
         <v>3234338205</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="13">
         <v>736</v>
       </c>
@@ -17772,7 +17773,7 @@
         <v>3232897243</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" s="13">
         <v>737</v>
       </c>
@@ -17792,7 +17793,7 @@
         <v>3226532843</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" s="13">
         <v>738</v>
       </c>
@@ -17812,7 +17813,7 @@
         <v>3226532843</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" s="13">
         <v>739</v>
       </c>
@@ -17832,7 +17833,7 @@
         <v>3136312867</v>
       </c>
     </row>
-    <row r="740" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" s="13">
         <v>740</v>
       </c>
@@ -17852,7 +17853,7 @@
         <v>3219529580</v>
       </c>
     </row>
-    <row r="741" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" s="13">
         <v>741</v>
       </c>
@@ -17872,7 +17873,7 @@
         <v>3127829085</v>
       </c>
     </row>
-    <row r="742" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" s="13">
         <v>742</v>
       </c>
@@ -17892,7 +17893,7 @@
         <v>3107003755</v>
       </c>
     </row>
-    <row r="743" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" s="13">
         <v>743</v>
       </c>
@@ -17912,7 +17913,7 @@
         <v>3127752445</v>
       </c>
     </row>
-    <row r="744" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" s="13">
         <v>744</v>
       </c>
@@ -17932,7 +17933,7 @@
         <v>3222627273</v>
       </c>
     </row>
-    <row r="745" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" s="13">
         <v>745</v>
       </c>
@@ -17952,7 +17953,7 @@
         <v>3136693223</v>
       </c>
     </row>
-    <row r="746" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" s="13">
         <v>746</v>
       </c>
@@ -17970,7 +17971,7 @@
       </c>
       <c r="F746" s="6"/>
     </row>
-    <row r="747" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" s="13">
         <v>747</v>
       </c>
@@ -17990,7 +17991,7 @@
         <v>3216745163</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" s="13">
         <v>748</v>
       </c>
@@ -18010,7 +18011,7 @@
         <v>3116306177</v>
       </c>
     </row>
-    <row r="749" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" s="13">
         <v>749</v>
       </c>
@@ -18030,7 +18031,7 @@
         <v>3113898784</v>
       </c>
     </row>
-    <row r="750" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" s="13">
         <v>750</v>
       </c>
@@ -18050,7 +18051,7 @@
         <v>3046443219</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" s="13">
         <v>751</v>
       </c>
@@ -18070,7 +18071,7 @@
         <v>3205728237</v>
       </c>
     </row>
-    <row r="752" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" s="13">
         <v>752</v>
       </c>
@@ -18090,7 +18091,7 @@
         <v>3213321938</v>
       </c>
     </row>
-    <row r="753" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" s="13">
         <v>753</v>
       </c>
@@ -18110,7 +18111,7 @@
         <v>3135684812</v>
       </c>
     </row>
-    <row r="754" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" s="13">
         <v>754</v>
       </c>
@@ -18128,7 +18129,7 @@
       </c>
       <c r="F754" s="6"/>
     </row>
-    <row r="755" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" s="13">
         <v>755</v>
       </c>
@@ -18148,7 +18149,7 @@
         <v>3127151321</v>
       </c>
     </row>
-    <row r="756" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" s="13">
         <v>756</v>
       </c>
@@ -18168,7 +18169,7 @@
         <v>3178880270</v>
       </c>
     </row>
-    <row r="757" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" s="13">
         <v>757</v>
       </c>
@@ -18188,7 +18189,7 @@
         <v>3043263190</v>
       </c>
     </row>
-    <row r="758" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" s="13">
         <v>758</v>
       </c>
@@ -18208,7 +18209,7 @@
         <v>3135766579</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" s="13">
         <v>759</v>
       </c>
@@ -18228,7 +18229,7 @@
         <v>3215590806</v>
       </c>
     </row>
-    <row r="760" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" s="13">
         <v>760</v>
       </c>
@@ -18248,7 +18249,7 @@
         <v>3116563487</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" s="13">
         <v>761</v>
       </c>
@@ -18266,7 +18267,7 @@
       </c>
       <c r="F761" s="6"/>
     </row>
-    <row r="762" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" s="13">
         <v>762</v>
       </c>
@@ -18286,7 +18287,7 @@
         <v>3011571593</v>
       </c>
     </row>
-    <row r="763" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" s="13">
         <v>763</v>
       </c>
@@ -18306,7 +18307,7 @@
         <v>3103967807</v>
       </c>
     </row>
-    <row r="764" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" s="13">
         <v>764</v>
       </c>
@@ -18326,7 +18327,7 @@
         <v>3127092323</v>
       </c>
     </row>
-    <row r="765" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" s="13">
         <v>765</v>
       </c>
@@ -18346,7 +18347,7 @@
         <v>3146155315</v>
       </c>
     </row>
-    <row r="766" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" s="13">
         <v>766</v>
       </c>
@@ -18364,7 +18365,7 @@
       </c>
       <c r="F766" s="6"/>
     </row>
-    <row r="767" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" s="13">
         <v>767</v>
       </c>
@@ -18384,7 +18385,7 @@
         <v>3028518166</v>
       </c>
     </row>
-    <row r="768" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" s="13">
         <v>768</v>
       </c>
@@ -18404,7 +18405,7 @@
         <v>3218882508</v>
       </c>
     </row>
-    <row r="769" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" s="13">
         <v>769</v>
       </c>
@@ -18424,7 +18425,7 @@
         <v>3226587006</v>
       </c>
     </row>
-    <row r="770" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" s="13">
         <v>770</v>
       </c>
@@ -18442,7 +18443,7 @@
       </c>
       <c r="F770" s="6"/>
     </row>
-    <row r="771" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" s="13">
         <v>771</v>
       </c>
@@ -18460,7 +18461,7 @@
       </c>
       <c r="F771" s="6"/>
     </row>
-    <row r="772" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" s="13">
         <v>772</v>
       </c>
@@ -18478,7 +18479,7 @@
       </c>
       <c r="F772" s="6"/>
     </row>
-    <row r="773" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" s="13">
         <v>773</v>
       </c>
@@ -18498,7 +18499,7 @@
         <v>3145023768</v>
       </c>
     </row>
-    <row r="774" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" s="13">
         <v>774</v>
       </c>
@@ -18516,7 +18517,7 @@
       </c>
       <c r="F774" s="6"/>
     </row>
-    <row r="775" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" s="13">
         <v>775</v>
       </c>
@@ -18536,7 +18537,7 @@
         <v>3126386374</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" s="13">
         <v>776</v>
       </c>
@@ -18556,7 +18557,7 @@
         <v>314292170</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" s="13">
         <v>777</v>
       </c>
@@ -18576,7 +18577,7 @@
         <v>3106358170</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" s="13">
         <v>778</v>
       </c>
@@ -18596,7 +18597,7 @@
         <v>3114612560</v>
       </c>
     </row>
-    <row r="779" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" s="13">
         <v>779</v>
       </c>
@@ -18614,7 +18615,7 @@
       </c>
       <c r="F779" s="6"/>
     </row>
-    <row r="780" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" s="13">
         <v>780</v>
       </c>
@@ -18634,7 +18635,7 @@
         <v>3234006241</v>
       </c>
     </row>
-    <row r="781" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" s="13">
         <v>781</v>
       </c>
@@ -18654,7 +18655,7 @@
         <v>3215388354</v>
       </c>
     </row>
-    <row r="782" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" s="13">
         <v>782</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>3175652650</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" s="13">
         <v>783</v>
       </c>
@@ -18694,7 +18695,7 @@
         <v>3136335714</v>
       </c>
     </row>
-    <row r="784" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" s="13">
         <v>784</v>
       </c>
@@ -18714,7 +18715,7 @@
         <v>3148120812</v>
       </c>
     </row>
-    <row r="785" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" s="13">
         <v>785</v>
       </c>
@@ -18734,7 +18735,7 @@
         <v>3117502720</v>
       </c>
     </row>
-    <row r="786" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" s="13">
         <v>786</v>
       </c>
@@ -18754,7 +18755,7 @@
         <v>3117202240</v>
       </c>
     </row>
-    <row r="787" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" s="13">
         <v>787</v>
       </c>
@@ -18774,7 +18775,7 @@
         <v>3147775754</v>
       </c>
     </row>
-    <row r="788" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" s="13">
         <v>788</v>
       </c>
@@ -18794,7 +18795,7 @@
         <v>3022044582</v>
       </c>
     </row>
-    <row r="789" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" s="13">
         <v>789</v>
       </c>
@@ -18814,7 +18815,7 @@
         <v>3112738107</v>
       </c>
     </row>
-    <row r="790" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" s="13">
         <v>790</v>
       </c>
@@ -18834,7 +18835,7 @@
         <v>3206607554</v>
       </c>
     </row>
-    <row r="791" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" s="13">
         <v>791</v>
       </c>
@@ -18854,7 +18855,7 @@
         <v>3145023768</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" s="13">
         <v>792</v>
       </c>
@@ -18874,7 +18875,7 @@
         <v>3135736547</v>
       </c>
     </row>
-    <row r="793" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" s="13">
         <v>793</v>
       </c>
@@ -18894,7 +18895,7 @@
         <v>3103554437</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" s="13">
         <v>794</v>
       </c>
@@ -18914,7 +18915,7 @@
         <v>3128222298</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" s="13">
         <v>795</v>
       </c>
@@ -18934,7 +18935,7 @@
         <v>3126383857</v>
       </c>
     </row>
-    <row r="796" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" s="13">
         <v>796</v>
       </c>
@@ -18954,7 +18955,7 @@
         <v>3104301435</v>
       </c>
     </row>
-    <row r="797" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" s="13">
         <v>797</v>
       </c>
@@ -18974,7 +18975,7 @@
         <v>3174601158</v>
       </c>
     </row>
-    <row r="798" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" s="13">
         <v>798</v>
       </c>
@@ -18994,7 +18995,7 @@
         <v>3108344454</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" s="13">
         <v>799</v>
       </c>
@@ -19014,7 +19015,7 @@
         <v>3116789484</v>
       </c>
     </row>
-    <row r="800" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" s="13">
         <v>800</v>
       </c>
@@ -19034,7 +19035,7 @@
         <v>3205912863</v>
       </c>
     </row>
-    <row r="801" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" s="13">
         <v>801</v>
       </c>
@@ -19054,7 +19055,7 @@
         <v>3124345682</v>
       </c>
     </row>
-    <row r="802" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" s="13">
         <v>802</v>
       </c>
@@ -19074,7 +19075,7 @@
         <v>3215971348</v>
       </c>
     </row>
-    <row r="803" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" s="13">
         <v>803</v>
       </c>
@@ -19092,7 +19093,7 @@
       </c>
       <c r="F803" s="6"/>
     </row>
-    <row r="804" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" s="13">
         <v>804</v>
       </c>
@@ -19112,7 +19113,7 @@
         <v>3024990831</v>
       </c>
     </row>
-    <row r="805" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" s="13">
         <v>805</v>
       </c>
@@ -19132,7 +19133,7 @@
         <v>3206586706</v>
       </c>
     </row>
-    <row r="806" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" s="13">
         <v>806</v>
       </c>
@@ -19152,7 +19153,7 @@
         <v>3239468691</v>
       </c>
     </row>
-    <row r="807" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" s="13">
         <v>807</v>
       </c>
@@ -19172,7 +19173,7 @@
         <v>3174259754</v>
       </c>
     </row>
-    <row r="808" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" s="13">
         <v>808</v>
       </c>
@@ -19192,7 +19193,7 @@
         <v>3103639362</v>
       </c>
     </row>
-    <row r="809" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" s="13">
         <v>809</v>
       </c>
@@ -19212,7 +19213,7 @@
         <v>3008303336</v>
       </c>
     </row>
-    <row r="810" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" s="13">
         <v>810</v>
       </c>
@@ -19232,7 +19233,7 @@
         <v>3238175213</v>
       </c>
     </row>
-    <row r="811" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" s="13">
         <v>811</v>
       </c>
@@ -19252,7 +19253,7 @@
         <v>3206105601</v>
       </c>
     </row>
-    <row r="812" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" s="13">
         <v>812</v>
       </c>
@@ -19272,7 +19273,7 @@
         <v>3145368515</v>
       </c>
     </row>
-    <row r="813" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" s="13">
         <v>813</v>
       </c>
@@ -19292,7 +19293,7 @@
         <v>3104429769</v>
       </c>
     </row>
-    <row r="814" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" s="13">
         <v>814</v>
       </c>
@@ -19312,7 +19313,7 @@
         <v>3146939759</v>
       </c>
     </row>
-    <row r="815" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" s="13">
         <v>815</v>
       </c>
@@ -19332,7 +19333,7 @@
         <v>3146939759</v>
       </c>
     </row>
-    <row r="816" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" s="13">
         <v>816</v>
       </c>
@@ -19352,7 +19353,7 @@
         <v>3207798909</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" s="13">
         <v>817</v>
       </c>
@@ -19372,7 +19373,7 @@
         <v>3238670352</v>
       </c>
     </row>
-    <row r="818" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" s="13">
         <v>818</v>
       </c>
@@ -19392,7 +19393,7 @@
         <v>3125394923</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" s="13">
         <v>819</v>
       </c>
@@ -19412,7 +19413,7 @@
         <v>3022909680</v>
       </c>
     </row>
-    <row r="820" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" s="13">
         <v>820</v>
       </c>
@@ -19432,7 +19433,7 @@
         <v>3116931215</v>
       </c>
     </row>
-    <row r="821" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" s="13">
         <v>821</v>
       </c>
@@ -19452,7 +19453,7 @@
         <v>3113809246</v>
       </c>
     </row>
-    <row r="822" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" s="13">
         <v>822</v>
       </c>
@@ -19472,7 +19473,7 @@
         <v>3148208816</v>
       </c>
     </row>
-    <row r="823" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" s="13">
         <v>823</v>
       </c>
@@ -19492,7 +19493,7 @@
         <v>3122798812</v>
       </c>
     </row>
-    <row r="824" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" s="13">
         <v>824</v>
       </c>
@@ -19512,7 +19513,7 @@
         <v>3122521036</v>
       </c>
     </row>
-    <row r="825" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" s="13">
         <v>825</v>
       </c>
@@ -19532,7 +19533,7 @@
         <v>3104688089</v>
       </c>
     </row>
-    <row r="826" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" s="13">
         <v>826</v>
       </c>
@@ -19552,7 +19553,7 @@
         <v>3008074463</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" s="13">
         <v>827</v>
       </c>
@@ -19572,7 +19573,7 @@
         <v>3226126503</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" s="13">
         <v>828</v>
       </c>
@@ -19592,7 +19593,7 @@
         <v>3117842642</v>
       </c>
     </row>
-    <row r="829" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" s="13">
         <v>829</v>
       </c>
@@ -19612,7 +19613,7 @@
         <v>3163689016</v>
       </c>
     </row>
-    <row r="830" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" s="13">
         <v>830</v>
       </c>
@@ -19632,7 +19633,7 @@
         <v>3106643220</v>
       </c>
     </row>
-    <row r="831" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" s="13">
         <v>831</v>
       </c>
@@ -19652,7 +19653,7 @@
         <v>3122091345</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" s="13">
         <v>832</v>
       </c>
@@ -19672,7 +19673,7 @@
         <v>3155718754</v>
       </c>
     </row>
-    <row r="833" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" s="13">
         <v>833</v>
       </c>
@@ -19692,7 +19693,7 @@
         <v>3218048023</v>
       </c>
     </row>
-    <row r="834" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" s="13">
         <v>834</v>
       </c>
@@ -19712,7 +19713,7 @@
         <v>3107425884</v>
       </c>
     </row>
-    <row r="835" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" s="13">
         <v>835</v>
       </c>
@@ -19736,7 +19737,14 @@
       <c r="E836"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F835" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F835" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Bladimir Cárdenas"/>
+        <filter val="Bladimir Ruíz"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>